--- a/StiffChecker/TestBook4.xlsx
+++ b/StiffChecker/TestBook4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="20415" windowHeight="14085" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="20415" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -381,7 +381,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
